--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntng1-Lrrc4c.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntng1-Lrrc4c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,13 +88,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
     <t>Ntng1</t>
   </si>
   <si>
     <t>Lrrc4c</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.03216400000000001</v>
+        <v>0.01547</v>
       </c>
       <c r="H2">
-        <v>0.09649200000000001</v>
+        <v>0.03094</v>
       </c>
       <c r="I2">
-        <v>0.03423103536536502</v>
+        <v>0.009330439911846343</v>
       </c>
       <c r="J2">
-        <v>0.05001780574169079</v>
+        <v>0.009219533969542759</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.05372233333333334</v>
+        <v>0.2179295</v>
       </c>
       <c r="N2">
-        <v>0.161167</v>
+        <v>0.435859</v>
       </c>
       <c r="O2">
-        <v>0.05246113272845285</v>
+        <v>0.1981430055167644</v>
       </c>
       <c r="P2">
-        <v>0.07046281953583826</v>
+        <v>0.1934085800016507</v>
       </c>
       <c r="Q2">
-        <v>0.001727925129333334</v>
+        <v>0.003371369365</v>
       </c>
       <c r="R2">
-        <v>0.015551326164</v>
+        <v>0.01348547746</v>
       </c>
       <c r="S2">
-        <v>0.001795798889734778</v>
+        <v>0.001848761406926809</v>
       </c>
       <c r="T2">
-        <v>0.003524395619555373</v>
+        <v>0.001783136973326247</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.03216400000000001</v>
+        <v>0.01547</v>
       </c>
       <c r="H3">
-        <v>0.09649200000000001</v>
+        <v>0.03094</v>
       </c>
       <c r="I3">
-        <v>0.03423103536536502</v>
+        <v>0.009330439911846343</v>
       </c>
       <c r="J3">
-        <v>0.05001780574169079</v>
+        <v>0.009219533969542759</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.784859</v>
+        <v>0.05372233333333334</v>
       </c>
       <c r="N3">
-        <v>1.569718</v>
+        <v>0.161167</v>
       </c>
       <c r="O3">
-        <v>0.7664334294015668</v>
+        <v>0.04884471625016404</v>
       </c>
       <c r="P3">
-        <v>0.6862866229200577</v>
+        <v>0.07151643217904423</v>
       </c>
       <c r="Q3">
-        <v>0.025244204876</v>
+        <v>0.0008310844966666667</v>
       </c>
       <c r="R3">
-        <v>0.151465229256</v>
+        <v>0.00498650698</v>
       </c>
       <c r="S3">
-        <v>0.02623580982704302</v>
+        <v>0.0004557426899833402</v>
       </c>
       <c r="T3">
-        <v>0.03432655098833644</v>
+        <v>0.0006593481758551991</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +655,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.03216400000000001</v>
+        <v>0.01547</v>
       </c>
       <c r="H4">
-        <v>0.09649200000000001</v>
+        <v>0.03094</v>
       </c>
       <c r="I4">
-        <v>0.03423103536536502</v>
+        <v>0.009330439911846343</v>
       </c>
       <c r="J4">
-        <v>0.05001780574169079</v>
+        <v>0.009219533969542759</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,33 +682,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1854593333333333</v>
+        <v>0.0001243333333333333</v>
       </c>
       <c r="N4">
-        <v>0.5563779999999999</v>
+        <v>0.000373</v>
       </c>
       <c r="O4">
-        <v>0.1811054378699804</v>
+        <v>0.0001130447247967089</v>
       </c>
       <c r="P4">
-        <v>0.243250557544104</v>
+        <v>0.0001655154541735188</v>
       </c>
       <c r="Q4">
-        <v>0.005965113997333333</v>
+        <v>1.923436666666666E-06</v>
       </c>
       <c r="R4">
-        <v>0.05368602597599999</v>
+        <v>1.154062E-05</v>
       </c>
       <c r="S4">
-        <v>0.006199426648587216</v>
+        <v>1.054757012066899E-06</v>
       </c>
       <c r="T4">
-        <v>0.01216685913379897</v>
+        <v>1.525975352237054E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,46 +726,46 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.8896924999999999</v>
+        <v>0.01547</v>
       </c>
       <c r="H5">
-        <v>1.779385</v>
+        <v>0.03094</v>
       </c>
       <c r="I5">
-        <v>0.9468690284728269</v>
+        <v>0.009330439911846343</v>
       </c>
       <c r="J5">
-        <v>0.9223659295037769</v>
+        <v>0.009219533969542759</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05372233333333334</v>
+        <v>0.8280835</v>
       </c>
       <c r="N5">
-        <v>0.161167</v>
+        <v>1.656167</v>
       </c>
       <c r="O5">
-        <v>0.05246113272845285</v>
+        <v>0.7528992335082748</v>
       </c>
       <c r="P5">
-        <v>0.07046281953583826</v>
+        <v>0.7349094723651315</v>
       </c>
       <c r="Q5">
-        <v>0.04779635704916666</v>
+        <v>0.012810451745</v>
       </c>
       <c r="R5">
-        <v>0.286778142295</v>
+        <v>0.05124180698</v>
       </c>
       <c r="S5">
-        <v>0.04967382177917417</v>
+        <v>0.007024881057924127</v>
       </c>
       <c r="T5">
-        <v>0.06499250403663034</v>
+        <v>0.006775522845009075</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +779,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.03216400000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.09649200000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.01939911243210251</v>
+      </c>
+      <c r="J6">
+        <v>0.02875278835776083</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.5</v>
       </c>
-      <c r="G6">
-        <v>0.8896924999999999</v>
-      </c>
-      <c r="H6">
-        <v>1.779385</v>
-      </c>
-      <c r="I6">
-        <v>0.9468690284728269</v>
-      </c>
-      <c r="J6">
-        <v>0.9223659295037769</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>0.784859</v>
+        <v>0.2179295</v>
       </c>
       <c r="N6">
-        <v>1.569718</v>
+        <v>0.435859</v>
       </c>
       <c r="O6">
-        <v>0.7664334294015668</v>
+        <v>0.1981430055167644</v>
       </c>
       <c r="P6">
-        <v>0.6862866229200577</v>
+        <v>0.1934085800016507</v>
       </c>
       <c r="Q6">
-        <v>0.6982831658574998</v>
+        <v>0.007009484438000001</v>
       </c>
       <c r="R6">
-        <v>2.793132663429999</v>
+        <v>0.042056906628</v>
       </c>
       <c r="S6">
-        <v>0.7257120766865586</v>
+        <v>0.00384379844165442</v>
       </c>
       <c r="T6">
-        <v>0.6330073988556671</v>
+        <v>0.005561035967362515</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +841,25 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.8896924999999999</v>
+        <v>0.03216400000000001</v>
       </c>
       <c r="H7">
-        <v>1.779385</v>
+        <v>0.09649200000000001</v>
       </c>
       <c r="I7">
-        <v>0.9468690284728269</v>
+        <v>0.01939911243210251</v>
       </c>
       <c r="J7">
-        <v>0.9223659295037769</v>
+        <v>0.02875278835776083</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,33 +868,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1854593333333333</v>
+        <v>0.05372233333333334</v>
       </c>
       <c r="N7">
-        <v>0.5563779999999999</v>
+        <v>0.161167</v>
       </c>
       <c r="O7">
-        <v>0.1811054378699804</v>
+        <v>0.04884471625016404</v>
       </c>
       <c r="P7">
-        <v>0.243250557544104</v>
+        <v>0.07151643217904423</v>
       </c>
       <c r="Q7">
-        <v>0.1650017779216666</v>
+        <v>0.001727925129333334</v>
       </c>
       <c r="R7">
-        <v>0.9900106675299998</v>
+        <v>0.015551326164</v>
       </c>
       <c r="S7">
-        <v>0.1714831300070943</v>
+        <v>0.0009475441422510765</v>
       </c>
       <c r="T7">
-        <v>0.2243660266114795</v>
+        <v>0.002056296838546215</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,25 +903,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.015642</v>
+        <v>0.03216400000000001</v>
       </c>
       <c r="H8">
-        <v>0.046926</v>
+        <v>0.09649200000000001</v>
       </c>
       <c r="I8">
-        <v>0.01664724086509885</v>
+        <v>0.01939911243210251</v>
       </c>
       <c r="J8">
-        <v>0.02432466476220393</v>
+        <v>0.02875278835776083</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,33 +930,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.05372233333333334</v>
+        <v>0.0001243333333333333</v>
       </c>
       <c r="N8">
-        <v>0.161167</v>
+        <v>0.000373</v>
       </c>
       <c r="O8">
-        <v>0.05246113272845285</v>
+        <v>0.0001130447247967089</v>
       </c>
       <c r="P8">
-        <v>0.07046281953583826</v>
+        <v>0.0001655154541735188</v>
       </c>
       <c r="Q8">
-        <v>0.000840324738</v>
+        <v>3.999057333333334E-06</v>
       </c>
       <c r="R8">
-        <v>0.007562922642000001</v>
+        <v>3.599151600000001E-05</v>
       </c>
       <c r="S8">
-        <v>0.000873333112586475</v>
+        <v>2.192967326187442E-06</v>
       </c>
       <c r="T8">
-        <v>0.00171398446340894</v>
+        <v>4.759030823789846E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,25 +965,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.015642</v>
+        <v>0.03216400000000001</v>
       </c>
       <c r="H9">
-        <v>0.046926</v>
+        <v>0.09649200000000001</v>
       </c>
       <c r="I9">
-        <v>0.01664724086509885</v>
+        <v>0.01939911243210251</v>
       </c>
       <c r="J9">
-        <v>0.02432466476220393</v>
+        <v>0.02875278835776083</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.784859</v>
+        <v>0.8280835</v>
       </c>
       <c r="N9">
-        <v>1.569718</v>
+        <v>1.656167</v>
       </c>
       <c r="O9">
-        <v>0.7664334294015668</v>
+        <v>0.7528992335082748</v>
       </c>
       <c r="P9">
-        <v>0.6862866229200577</v>
+        <v>0.7349094723651315</v>
       </c>
       <c r="Q9">
-        <v>0.012276764478</v>
+        <v>0.026634477694</v>
       </c>
       <c r="R9">
-        <v>0.07366058686800001</v>
+        <v>0.159806866164</v>
       </c>
       <c r="S9">
-        <v>0.01275900190631162</v>
+        <v>0.01460557688087082</v>
       </c>
       <c r="T9">
-        <v>0.01669369203331547</v>
+        <v>0.0211306965210283</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1027,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.015642</v>
+        <v>1.602654</v>
       </c>
       <c r="H10">
-        <v>0.046926</v>
+        <v>3.205308</v>
       </c>
       <c r="I10">
-        <v>0.01664724086509885</v>
+        <v>0.9666106558810723</v>
       </c>
       <c r="J10">
-        <v>0.02432466476220393</v>
+        <v>0.9551210726841358</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.1854593333333333</v>
+        <v>0.2179295</v>
       </c>
       <c r="N10">
-        <v>0.5563779999999999</v>
+        <v>0.435859</v>
       </c>
       <c r="O10">
-        <v>0.1811054378699804</v>
+        <v>0.1981430055167644</v>
       </c>
       <c r="P10">
-        <v>0.243250557544104</v>
+        <v>0.1934085800016507</v>
       </c>
       <c r="Q10">
-        <v>0.002900954892</v>
+        <v>0.349265584893</v>
       </c>
       <c r="R10">
-        <v>0.026108594028</v>
+        <v>1.397062339572</v>
       </c>
       <c r="S10">
-        <v>0.003014905846200759</v>
+        <v>0.1915271405208066</v>
       </c>
       <c r="T10">
-        <v>0.005916988265479528</v>
+        <v>0.1847286103974921</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,25 +1089,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.002116666666666666</v>
+        <v>1.602654</v>
       </c>
       <c r="H11">
-        <v>0.00635</v>
+        <v>3.205308</v>
       </c>
       <c r="I11">
-        <v>0.002252695296709238</v>
+        <v>0.9666106558810723</v>
       </c>
       <c r="J11">
-        <v>0.00329159999232824</v>
+        <v>0.9551210726841358</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,27 +1122,27 @@
         <v>0.161167</v>
       </c>
       <c r="O11">
-        <v>0.05246113272845285</v>
+        <v>0.04884471625016404</v>
       </c>
       <c r="P11">
-        <v>0.07046281953583826</v>
+        <v>0.07151643217904423</v>
       </c>
       <c r="Q11">
-        <v>0.0001137122722222222</v>
+        <v>0.08609831240600001</v>
       </c>
       <c r="R11">
-        <v>0.00102341045</v>
+        <v>0.516589874436</v>
       </c>
       <c r="S11">
-        <v>0.0001181789469574248</v>
+        <v>0.04721382321089593</v>
       </c>
       <c r="T11">
-        <v>0.0002319354162435913</v>
+        <v>0.06830685141739097</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1151,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.602654</v>
+      </c>
+      <c r="H12">
+        <v>3.205308</v>
+      </c>
+      <c r="I12">
+        <v>0.9666106558810723</v>
+      </c>
+      <c r="J12">
+        <v>0.9551210726841358</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G12">
-        <v>0.002116666666666666</v>
-      </c>
-      <c r="H12">
-        <v>0.00635</v>
-      </c>
-      <c r="I12">
-        <v>0.002252695296709238</v>
-      </c>
-      <c r="J12">
-        <v>0.00329159999232824</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
       <c r="M12">
-        <v>0.784859</v>
+        <v>0.0001243333333333333</v>
       </c>
       <c r="N12">
-        <v>1.569718</v>
+        <v>0.000373</v>
       </c>
       <c r="O12">
-        <v>0.7664334294015668</v>
+        <v>0.0001130447247967089</v>
       </c>
       <c r="P12">
-        <v>0.6862866229200577</v>
+        <v>0.0001655154541735188</v>
       </c>
       <c r="Q12">
-        <v>0.001661284883333333</v>
+        <v>0.000199263314</v>
       </c>
       <c r="R12">
-        <v>0.009967709299999999</v>
+        <v>0.001195579884</v>
       </c>
       <c r="S12">
-        <v>0.001726540981653641</v>
+        <v>0.0001092702355796421</v>
       </c>
       <c r="T12">
-        <v>0.002258981042738635</v>
+        <v>0.0001580872981360132</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1216,300 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.602654</v>
+      </c>
+      <c r="H13">
+        <v>3.205308</v>
+      </c>
+      <c r="I13">
+        <v>0.9666106558810723</v>
+      </c>
+      <c r="J13">
+        <v>0.9551210726841358</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.8280835</v>
+      </c>
+      <c r="N13">
+        <v>1.656167</v>
+      </c>
+      <c r="O13">
+        <v>0.7528992335082748</v>
+      </c>
+      <c r="P13">
+        <v>0.7349094723651315</v>
+      </c>
+      <c r="Q13">
+        <v>1.327131333609</v>
+      </c>
+      <c r="R13">
+        <v>5.308525334436</v>
+      </c>
+      <c r="S13">
+        <v>0.7277604219137901</v>
+      </c>
+      <c r="T13">
+        <v>0.7019275235711167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.007726</v>
+      </c>
+      <c r="H14">
+        <v>0.023178</v>
+      </c>
+      <c r="I14">
+        <v>0.004659791774978981</v>
+      </c>
+      <c r="J14">
+        <v>0.006906604988560506</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.2179295</v>
+      </c>
+      <c r="N14">
+        <v>0.435859</v>
+      </c>
+      <c r="O14">
+        <v>0.1981430055167644</v>
+      </c>
+      <c r="P14">
+        <v>0.1934085800016507</v>
+      </c>
+      <c r="Q14">
+        <v>0.001683723317</v>
+      </c>
+      <c r="R14">
+        <v>0.010102339902</v>
+      </c>
+      <c r="S14">
+        <v>0.0009233051473766337</v>
+      </c>
+      <c r="T14">
+        <v>0.001335796663469804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.007726</v>
+      </c>
+      <c r="H15">
+        <v>0.023178</v>
+      </c>
+      <c r="I15">
+        <v>0.004659791774978981</v>
+      </c>
+      <c r="J15">
+        <v>0.006906604988560506</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G13">
-        <v>0.002116666666666666</v>
-      </c>
-      <c r="H13">
-        <v>0.00635</v>
-      </c>
-      <c r="I13">
-        <v>0.002252695296709238</v>
-      </c>
-      <c r="J13">
-        <v>0.00329159999232824</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
+      <c r="M15">
+        <v>0.05372233333333334</v>
+      </c>
+      <c r="N15">
+        <v>0.161167</v>
+      </c>
+      <c r="O15">
+        <v>0.04884471625016404</v>
+      </c>
+      <c r="P15">
+        <v>0.07151643217904423</v>
+      </c>
+      <c r="Q15">
+        <v>0.0004150587473333334</v>
+      </c>
+      <c r="R15">
+        <v>0.003735528726</v>
+      </c>
+      <c r="S15">
+        <v>0.0002276062070336966</v>
+      </c>
+      <c r="T15">
+        <v>0.000493935747251836</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.007726</v>
+      </c>
+      <c r="H16">
+        <v>0.023178</v>
+      </c>
+      <c r="I16">
+        <v>0.004659791774978981</v>
+      </c>
+      <c r="J16">
+        <v>0.006906604988560506</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M13">
-        <v>0.1854593333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.5563779999999999</v>
-      </c>
-      <c r="O13">
-        <v>0.1811054378699804</v>
-      </c>
-      <c r="P13">
-        <v>0.243250557544104</v>
-      </c>
-      <c r="Q13">
-        <v>0.0003925555888888888</v>
-      </c>
-      <c r="R13">
-        <v>0.003533000299999999</v>
-      </c>
-      <c r="S13">
-        <v>0.0004079753680981719</v>
-      </c>
-      <c r="T13">
-        <v>0.0008006835333460128</v>
+      <c r="M16">
+        <v>0.0001243333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.000373</v>
+      </c>
+      <c r="O16">
+        <v>0.0001130447247967089</v>
+      </c>
+      <c r="P16">
+        <v>0.0001655154541735188</v>
+      </c>
+      <c r="Q16">
+        <v>9.605993333333335E-07</v>
+      </c>
+      <c r="R16">
+        <v>8.645394000000001E-06</v>
+      </c>
+      <c r="S16">
+        <v>5.267648788124668E-07</v>
+      </c>
+      <c r="T16">
+        <v>1.143149861478682E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.007726</v>
+      </c>
+      <c r="H17">
+        <v>0.023178</v>
+      </c>
+      <c r="I17">
+        <v>0.004659791774978981</v>
+      </c>
+      <c r="J17">
+        <v>0.006906604988560506</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.8280835</v>
+      </c>
+      <c r="N17">
+        <v>1.656167</v>
+      </c>
+      <c r="O17">
+        <v>0.7528992335082748</v>
+      </c>
+      <c r="P17">
+        <v>0.7349094723651315</v>
+      </c>
+      <c r="Q17">
+        <v>0.006397773121</v>
+      </c>
+      <c r="R17">
+        <v>0.038386638726</v>
+      </c>
+      <c r="S17">
+        <v>0.003508353655689838</v>
+      </c>
+      <c r="T17">
+        <v>0.005075729427977386</v>
       </c>
     </row>
   </sheetData>
